--- a/results/ML/DT_cEnroll_nPSU_vs_Desertor/evaluateRegModel.xlsx
+++ b/results/ML/DT_cEnroll_nPSU_vs_Desertor/evaluateRegModel.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Reference\models\desertorstudent\results\ML\DT_cEnroll_nPSU_vs_Desertor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\Reference\models\desertorstudent\results\ML\DT_cEnroll_nPSU_vs_Desertor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37808E1A-C054-41FA-9C69-0C86A73EF109}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D6BE094-48BE-48BA-B97F-6C742E653807}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16800" yWindow="0" windowWidth="12000" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/results/ML/DT_cEnroll_nPSU_vs_Desertor/evaluateRegModel.xlsx
+++ b/results/ML/DT_cEnroll_nPSU_vs_Desertor/evaluateRegModel.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\Reference\models\desertorstudent\results\ML\DT_cEnroll_nPSU_vs_Desertor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Reference\models\desertorstudent\results\ML\DT_cEnroll_nPSU_vs_Desertor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D6BE094-48BE-48BA-B97F-6C742E653807}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8046280A-0407-4565-9177-79F3A8231837}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16800" yWindow="0" windowWidth="12000" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/results/ML/DT_cEnroll_nPSU_vs_Desertor/evaluateRegModel.xlsx
+++ b/results/ML/DT_cEnroll_nPSU_vs_Desertor/evaluateRegModel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Reference\models\desertorstudent\results\ML\DT_cEnroll_nPSU_vs_Desertor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8046280A-0407-4565-9177-79F3A8231837}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CAA4BB7-9047-4A08-B0CF-C12C57C0FAE6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16800" yWindow="0" windowWidth="12000" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16800" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Indicators" sheetId="1" r:id="rId1"/>

--- a/results/ML/DT_cEnroll_nPSU_vs_Desertor/evaluateRegModel.xlsx
+++ b/results/ML/DT_cEnroll_nPSU_vs_Desertor/evaluateRegModel.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Reference\models\desertorstudent\results\ML\DT_cEnroll_nPSU_vs_Desertor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\Reference\models\desertorstudent\results\ML\DT_cEnroll_nPSU_vs_Desertor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CAA4BB7-9047-4A08-B0CF-C12C57C0FAE6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F42E48D4-71FA-4096-9695-3AD231339C74}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16800" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/results/ML/DT_cEnroll_nPSU_vs_Desertor/evaluateRegModel.xlsx
+++ b/results/ML/DT_cEnroll_nPSU_vs_Desertor/evaluateRegModel.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\Reference\models\desertorstudent\results\ML\DT_cEnroll_nPSU_vs_Desertor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Reference\models\desertorstudent\results\ML\DT_cEnroll_nPSU_vs_Desertor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F42E48D4-71FA-4096-9695-3AD231339C74}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BF9731D-73E2-4E46-95EE-C77CDF59DE90}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16800" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="690" yWindow="0" windowWidth="16800" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Indicators" sheetId="1" r:id="rId1"/>
